--- a/Data/EC/NIT-8909001482.xlsx
+++ b/Data/EC/NIT-8909001482.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DC3904F-6F37-4BFE-9A21-F262553D1220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58F9CD94-A366-46CF-9271-BCAC7EEABAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{98A438E0-407A-4D2B-8E85-4B4CABD03613}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{581DB530-626F-4343-B60B-AC7B1107DEDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="134">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,337 +71,340 @@
     <t>OSCAR DE JESUS CARRILLO TORRES</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>91235561</t>
+  </si>
+  <si>
+    <t>ALEXIS REY MIRANDA</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
     <t>2001</t>
   </si>
   <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>91235561</t>
-  </si>
-  <si>
-    <t>ALEXIS REY MIRANDA</t>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -500,7 +503,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -513,9 +518,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -715,23 +718,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,10 +762,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,7 +818,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB468938-0097-23CF-AB15-3BD471E1A371}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529E8E5B-39F0-34D0-F24E-FD959EFC48CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,8 +1169,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B1A98F-6B90-4A77-8660-9AFA30EF4EB0}">
-  <dimension ref="B2:J173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80628A8-3AF4-4133-BF5E-5198BC29726D}">
+  <dimension ref="B2:J174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1191,7 +1194,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1236,7 +1239,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1268,12 +1271,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>24097422</v>
+        <v>24264582</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1284,17 +1287,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F13" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1321,13 +1324,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1347,7 +1350,7 @@
         <v>136674</v>
       </c>
       <c r="G16" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1358,19 +1361,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G17" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1387,13 +1390,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>136674</v>
       </c>
       <c r="G18" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1404,19 +1407,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G19" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1439,7 +1442,7 @@
         <v>136674</v>
       </c>
       <c r="G20" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1450,19 +1453,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G21" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1479,13 +1482,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>136674</v>
       </c>
       <c r="G22" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1496,19 +1499,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G23" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1525,13 +1528,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>136674</v>
       </c>
       <c r="G24" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1542,19 +1545,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G25" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1571,13 +1574,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>136674</v>
       </c>
       <c r="G26" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1588,19 +1591,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G27" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1617,13 +1620,13 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>136674</v>
       </c>
       <c r="G28" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1634,19 +1637,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G29" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1663,13 +1666,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>136674</v>
       </c>
       <c r="G30" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1680,19 +1683,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G31" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1709,13 +1712,13 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>136674</v>
       </c>
       <c r="G32" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1726,19 +1729,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G33" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1755,13 +1758,13 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>136674</v>
       </c>
       <c r="G34" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1772,19 +1775,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G35" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1801,13 +1804,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>136674</v>
       </c>
       <c r="G36" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1818,19 +1821,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G37" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1847,13 +1850,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>136674</v>
       </c>
       <c r="G38" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1864,19 +1867,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G39" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1893,13 +1896,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>136674</v>
       </c>
       <c r="G40" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1910,19 +1913,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G41" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1939,13 +1942,13 @@
         <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
         <v>136674</v>
       </c>
       <c r="G42" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1956,19 +1959,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G43" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1985,13 +1988,13 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
         <v>136674</v>
       </c>
       <c r="G44" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2002,19 +2005,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G45" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2031,13 +2034,13 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>136674</v>
       </c>
       <c r="G46" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2048,19 +2051,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G47" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2077,13 +2080,13 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
         <v>136674</v>
       </c>
       <c r="G48" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2094,19 +2097,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G49" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2123,13 +2126,13 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F50" s="18">
         <v>136674</v>
       </c>
       <c r="G50" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2140,19 +2143,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G51" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2169,13 +2172,13 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>136674</v>
       </c>
       <c r="G52" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2186,19 +2189,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G53" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2215,13 +2218,13 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>136674</v>
       </c>
       <c r="G54" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2232,19 +2235,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G55" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2261,13 +2264,13 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
         <v>136674</v>
       </c>
       <c r="G56" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2278,19 +2281,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
-        <v>136674</v>
+        <v>167160</v>
       </c>
       <c r="G57" s="18">
-        <v>0</v>
+        <v>4179000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2307,13 +2310,13 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
         <v>136674</v>
       </c>
       <c r="G58" s="18">
-        <v>0</v>
+        <v>3899800</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2324,13 +2327,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
         <v>167160</v>
@@ -2347,19 +2350,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G60" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2370,13 +2373,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
         <v>167160</v>
@@ -2393,19 +2396,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F62" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G62" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2416,13 +2419,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
         <v>167160</v>
@@ -2439,19 +2442,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G64" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2462,13 +2465,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
         <v>167160</v>
@@ -2485,19 +2488,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F66" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G66" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2508,13 +2511,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F67" s="18">
         <v>167160</v>
@@ -2531,19 +2534,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F68" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G68" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2554,13 +2557,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="F69" s="18">
         <v>167160</v>
@@ -2577,19 +2580,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="F70" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G70" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2600,13 +2603,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F71" s="18">
         <v>167160</v>
@@ -2623,19 +2626,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G72" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2646,13 +2649,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F73" s="18">
         <v>167160</v>
@@ -2669,19 +2672,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="F74" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G74" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2692,13 +2695,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F75" s="18">
         <v>167160</v>
@@ -2715,19 +2718,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="F76" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G76" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2738,13 +2741,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F77" s="18">
         <v>167160</v>
@@ -2761,19 +2764,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F78" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G78" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2784,13 +2787,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="F79" s="18">
         <v>167160</v>
@@ -2807,19 +2810,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="F80" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G80" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2830,13 +2833,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F81" s="18">
         <v>167160</v>
@@ -2853,19 +2856,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="F82" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G82" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2876,13 +2879,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F83" s="18">
         <v>167160</v>
@@ -2899,19 +2902,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="F84" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G84" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2922,13 +2925,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F85" s="18">
         <v>167160</v>
@@ -2945,19 +2948,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="F86" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G86" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2968,13 +2971,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F87" s="18">
         <v>167160</v>
@@ -2991,19 +2994,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="F88" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G88" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3014,13 +3017,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="F89" s="18">
         <v>167160</v>
@@ -3037,19 +3040,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F90" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G90" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3060,13 +3063,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="F91" s="18">
         <v>167160</v>
@@ -3083,19 +3086,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="F92" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G92" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3106,13 +3109,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="F93" s="18">
         <v>167160</v>
@@ -3129,19 +3132,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F94" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G94" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3152,13 +3155,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="F95" s="18">
         <v>167160</v>
@@ -3175,19 +3178,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="F96" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G96" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3198,13 +3201,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F97" s="18">
         <v>167160</v>
@@ -3221,19 +3224,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D98" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>95</v>
-      </c>
       <c r="F98" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G98" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3244,13 +3247,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="F99" s="18">
         <v>167160</v>
@@ -3267,19 +3270,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E100" s="16" t="s">
-        <v>97</v>
-      </c>
       <c r="F100" s="18">
-        <v>167160</v>
+        <v>136674</v>
       </c>
       <c r="G100" s="18">
-        <v>4179000</v>
+        <v>3899800</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3290,13 +3293,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>98</v>
       </c>
       <c r="F101" s="18">
         <v>167160</v>
@@ -3313,13 +3316,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="F102" s="18">
         <v>167160</v>
@@ -3336,13 +3339,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F103" s="18">
         <v>167160</v>
@@ -3359,13 +3362,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="F104" s="18">
         <v>167160</v>
@@ -3382,13 +3385,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="F105" s="18">
         <v>167160</v>
@@ -3405,13 +3408,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="F106" s="18">
         <v>167160</v>
@@ -3428,13 +3431,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="F107" s="18">
         <v>167160</v>
@@ -3451,13 +3454,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="F108" s="18">
         <v>167160</v>
@@ -3474,13 +3477,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F109" s="18">
         <v>167160</v>
@@ -3497,13 +3500,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="F110" s="18">
         <v>167160</v>
@@ -3520,13 +3523,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F111" s="18">
         <v>167160</v>
@@ -3543,13 +3546,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="F112" s="18">
         <v>167160</v>
@@ -3566,13 +3569,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="F113" s="18">
         <v>167160</v>
@@ -3589,13 +3592,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="F114" s="18">
         <v>167160</v>
@@ -3612,13 +3615,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="F115" s="18">
         <v>167160</v>
@@ -3635,13 +3638,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="F116" s="18">
         <v>167160</v>
@@ -3658,13 +3661,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="F117" s="18">
         <v>167160</v>
@@ -3681,13 +3684,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="F118" s="18">
         <v>167160</v>
@@ -3704,13 +3707,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F119" s="18">
         <v>167160</v>
@@ -3727,13 +3730,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="F120" s="18">
         <v>167160</v>
@@ -3750,13 +3753,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="F121" s="18">
         <v>167160</v>
@@ -3773,13 +3776,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="F122" s="18">
         <v>167160</v>
@@ -3796,13 +3799,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="F123" s="18">
         <v>167160</v>
@@ -3819,13 +3822,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="F124" s="18">
         <v>167160</v>
@@ -3842,13 +3845,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F125" s="18">
         <v>167160</v>
@@ -3865,13 +3868,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F126" s="18">
         <v>167160</v>
@@ -3888,13 +3891,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="F127" s="18">
         <v>167160</v>
@@ -3911,13 +3914,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F128" s="18">
         <v>167160</v>
@@ -3934,13 +3937,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F129" s="18">
         <v>167160</v>
@@ -3957,13 +3960,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="F130" s="18">
         <v>167160</v>
@@ -3980,13 +3983,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F131" s="18">
         <v>167160</v>
@@ -4003,13 +4006,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="F132" s="18">
         <v>167160</v>
@@ -4026,13 +4029,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="F133" s="18">
         <v>167160</v>
@@ -4049,13 +4052,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="F134" s="18">
         <v>167160</v>
@@ -4072,13 +4075,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="F135" s="18">
         <v>167160</v>
@@ -4095,13 +4098,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="F136" s="18">
         <v>167160</v>
@@ -4118,13 +4121,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="F137" s="18">
         <v>167160</v>
@@ -4141,13 +4144,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F138" s="18">
         <v>167160</v>
@@ -4164,13 +4167,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="F139" s="18">
         <v>167160</v>
@@ -4187,13 +4190,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="F140" s="18">
         <v>167160</v>
@@ -4210,13 +4213,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="F141" s="18">
         <v>167160</v>
@@ -4233,13 +4236,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="F142" s="18">
         <v>167160</v>
@@ -4256,13 +4259,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="F143" s="18">
         <v>167160</v>
@@ -4279,13 +4282,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="F144" s="18">
         <v>167160</v>
@@ -4302,13 +4305,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="F145" s="18">
         <v>167160</v>
@@ -4325,13 +4328,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F146" s="18">
         <v>167160</v>
@@ -4348,13 +4351,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="F147" s="18">
         <v>167160</v>
@@ -4371,13 +4374,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="F148" s="18">
         <v>167160</v>
@@ -4394,13 +4397,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="F149" s="18">
         <v>167160</v>
@@ -4417,13 +4420,13 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="F150" s="18">
         <v>167160</v>
@@ -4440,13 +4443,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="F151" s="18">
         <v>167160</v>
@@ -4463,13 +4466,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F152" s="18">
         <v>167160</v>
@@ -4486,13 +4489,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="F153" s="18">
         <v>167160</v>
@@ -4509,13 +4512,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="F154" s="18">
         <v>167160</v>
@@ -4532,13 +4535,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="F155" s="18">
         <v>167160</v>
@@ -4555,13 +4558,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="F156" s="18">
         <v>167160</v>
@@ -4578,13 +4581,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="F157" s="18">
         <v>167160</v>
@@ -4601,13 +4604,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="F158" s="18">
         <v>167160</v>
@@ -4624,13 +4627,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="F159" s="18">
         <v>167160</v>
@@ -4647,13 +4650,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="F160" s="18">
         <v>167160</v>
@@ -4670,13 +4673,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="F161" s="18">
         <v>167160</v>
@@ -4693,13 +4696,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="F162" s="18">
         <v>167160</v>
@@ -4716,13 +4719,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="F163" s="18">
         <v>167160</v>
@@ -4739,13 +4742,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="F164" s="18">
         <v>167160</v>
@@ -4762,13 +4765,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="F165" s="18">
         <v>167160</v>
@@ -4785,13 +4788,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="F166" s="18">
         <v>167160</v>
@@ -4804,42 +4807,54 @@
       <c r="J166" s="20"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B167" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C167" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D167" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E167" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F167" s="24">
-        <v>167160</v>
-      </c>
-      <c r="G167" s="24">
-        <v>4179000</v>
-      </c>
-      <c r="H167" s="25"/>
-      <c r="I167" s="25"/>
-      <c r="J167" s="26"/>
-    </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B172" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C172" s="32"/>
-      <c r="H172" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
+      <c r="B167" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F167" s="18">
+        <v>167160</v>
+      </c>
+      <c r="G167" s="18">
+        <v>4179000</v>
+      </c>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="20"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B168" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F168" s="24">
+        <v>167160</v>
+      </c>
+      <c r="G168" s="24">
+        <v>4179000</v>
+      </c>
+      <c r="H168" s="25"/>
+      <c r="I168" s="25"/>
+      <c r="J168" s="26"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C173" s="32"/>
       <c r="H173" s="1" t="s">
@@ -4848,12 +4863,23 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B174" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C174" s="32"/>
+      <c r="H174" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B174:C174"/>
     <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="H174:J174"/>
     <mergeCell ref="H173:J173"/>
-    <mergeCell ref="H172:J172"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
